--- a/public/cohort/fileExcel/xlsxUIT/OPEN/WB_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/WB_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -885,13 +885,13 @@
     <t>H</t>
   </si>
   <si>
-    <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.1 t/m 1.3) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.1 t/m 2.5)</t>
+    <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.1 t/m 1.4) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.1 t/m 2.3)</t>
   </si>
   <si>
     <t>startJaar</t>
   </si>
   <si>
-    <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.4 t/m 1.7) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.6 en 2.7). Stof van paragraaf 1.1 t/m 1.3 en 2.1 t/m 2.5 wordt bekend verondersteld.</t>
+    <t>Hoofdstuk 1 en hoofdstuk 2</t>
   </si>
   <si>
     <t>cid</t>
@@ -912,7 +912,7 @@
     <t>vandaag</t>
   </si>
   <si>
-    <t>Hoofdstuk 3: Machtsfuncties. Hoofdstuk 4: ExponentiÃ«le functies</t>
+    <t>Hoofdstuk 3: Machtsfuncties. Hoofdstuk 4: Exponentiële functies</t>
   </si>
   <si>
     <t>A1, A2, A3, B1, B2</t>
@@ -936,28 +936,61 @@
     <t>mavo?</t>
   </si>
   <si>
+    <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.1 t/m 1.3) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.1 t/m 2.5)</t>
+  </si>
+  <si>
+    <t>kies...</t>
+  </si>
+  <si>
+    <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.4 t/m 1.7) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.6 en 2.7). Stof van paragraaf 1.1 t/m 1.3 en 2.1 t/m 2.5 wordt bekend verondersteld.</t>
+  </si>
+  <si>
     <t>Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor het SE.</t>
+  </si>
+  <si>
+    <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 1: Logaritmische functies ; Hoofdstuk 2: Functies bewerken. Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, rekenen</t>
+  </si>
+  <si>
+    <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 3: Goniometrische functies  Hoofdstuk 4: Differentiëren. Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, D1, D2, D3, D4, rekenen</t>
+  </si>
+  <si>
+    <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 5: Cirkels  Hoofdstuk 6: Verbanden. Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
   </si>
   <si>
     <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 1: Logaritmische functies ; Hoofdstuk 2: Functies bewerken Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
   </si>
   <si>
-    <t>A1, A2, A3, rekenen</t>
-  </si>
-  <si>
-    <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 3: Goniometrische functies  Hoofdstuk 4: DifferentiÃ«ren Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, D1, D2, D3, D4, rekenen</t>
+    <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 3: Goniometrische functies  Hoofdstuk 4: Differentiëren Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
   </si>
   <si>
     <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 5: Cirkels  Hoofdstuk 6: Verbanden Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H1. Vergelijkingen.  Vaardigheden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1. Vergelijkingen. H2. Functies en grafieken. Vaardigheden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3. Machtsfuncties. H4. Exponentiële functies. Vaardigheden. </t>
+  </si>
+  <si>
+    <t>H5. Lijnen. H8. Vectoren. Vaardigheden.</t>
+  </si>
+  <si>
+    <t>H6. Afgeleide functies. Vaardigheden.</t>
+  </si>
+  <si>
+    <t>H6. Afgeleide functies. H7 Periodieke functies. Vaardigheden</t>
   </si>
   <si>
     <t xml:space="preserve">H1 Vergelijkingen  Vaardigheden </t>
@@ -969,7 +1002,7 @@
     <t>H5 Lijnen H8 Vectoren Vaardigheden</t>
   </si>
   <si>
-    <t>H3 Machtsfuncties en H4 ExponentiÃ¨le functies Vaardigheden</t>
+    <t>H3 Machtsfuncties en H4 Exponentièle functies Vaardigheden</t>
   </si>
   <si>
     <t>H6 Afgeleide functies Vaardigheden</t>
@@ -999,10 +1032,10 @@
     <t>A1, A2, A3, E1</t>
   </si>
   <si>
-    <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H6. Product-en quotiÃ«ntfuncties. H8. Goniometrische functies. Vaardigheden</t>
+    <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H6. Product-en quotiëntfuncties. H8. Goniometrische functies. Vaardigheden</t>
   </si>
   <si>
-    <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 6 H1. ExponentiÃ«le en logaritmische functies. H2. Toepassingen van integreren. Vaardigheden</t>
+    <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 6 H1. Exponentiële en logaritmische functies. H2. Toepassingen van integreren. Vaardigheden</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 6 H3. Bewegingsvergelijkingen. H6. Afsluiting meetkunde. Vaardigheden</t>
@@ -2238,7 +2271,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2397,7 +2430,7 @@
         <v>63</v>
       </c>
       <c r="I6" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>7</v>
@@ -2411,7 +2444,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2456,7 +2489,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -2472,7 +2505,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -2500,14 +2533,14 @@
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2552,7 +2585,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -2568,7 +2601,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -2603,7 +2636,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2648,7 +2681,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -2664,7 +2697,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -2686,7 +2719,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>7</v>
@@ -2702,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>70</v>
@@ -2774,7 +2807,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2">
         <v>775</v>
@@ -2803,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>73</v>
@@ -2902,7 +2935,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -2947,7 +2980,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -2963,7 +2996,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -4530,7 +4563,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -4686,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -4703,7 +4736,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4748,7 +4781,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -4764,7 +4797,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -4782,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4799,7 +4832,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4844,7 +4877,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -4860,7 +4893,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -4895,7 +4928,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4940,7 +4973,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -4956,7 +4989,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -4994,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>70</v>
@@ -5005,7 +5038,7 @@
       </c>
       <c r="S9" s="7">
         <f>IF(AND(ISBLANK($I21),AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2),AND(ISBLANK($N21))),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7">
         <f>IF(ISBLANK($J9),1,0)</f>
@@ -5057,7 +5090,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -5066,7 +5099,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2">
         <v>363</v>
@@ -5095,7 +5128,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>73</v>
@@ -5106,7 +5139,7 @@
       </c>
       <c r="S10" s="7">
         <f>IF(AND(ISBLANK($I22),AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2),AND(ISBLANK($N22))),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="7">
         <f>IF(ISBLANK($J10),1,0)</f>
@@ -5158,7 +5191,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -5194,7 +5227,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5239,7 +5272,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -5255,7 +5288,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -5329,7 +5362,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5460,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5474,13 +5507,13 @@
         <v>8</v>
       </c>
       <c r="N18" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5549,10 +5582,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5566,13 +5599,13 @@
         <v>8</v>
       </c>
       <c r="N19" s="46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5641,10 +5674,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5658,13 +5691,13 @@
         <v>8</v>
       </c>
       <c r="N20" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -5728,28 +5761,24 @@
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>769</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>86</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="29">
-        <v>0</v>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="45"/>
       <c r="M21" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -5794,7 +5823,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -5810,32 +5839,28 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>770</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>86</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
       <c r="I22" s="45"/>
-      <c r="J22" s="29">
-        <v>0</v>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="45"/>
       <c r="M22" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -5880,7 +5905,7 @@
       </c>
       <c r="AB22" s="7">
         <f>IF(AND(OR($O22=instellingen!$I$3,$O22=instellingen!$I$4),OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="7">
         <f>IF(AND($O22=instellingen!$I$2,$M22=instellingen!$I$3),1,0)</f>
@@ -5896,7 +5921,7 @@
       </c>
       <c r="AF22" s="8">
         <f>SUM(R22:AE22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">
@@ -6030,7 +6055,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -6862,7 +6889,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -7301,7 +7328,7 @@
       </c>
       <c r="S9" s="7">
         <f>IF(AND(ISBLANK($I21),AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2),AND(ISBLANK($N21))),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7">
         <f>IF(ISBLANK($J9),1,0)</f>
@@ -7353,7 +7380,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -7362,7 +7389,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7390,7 +7417,7 @@
       </c>
       <c r="S10" s="7">
         <f>IF(AND(ISBLANK($I22),AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2),AND(ISBLANK($N22))),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="7">
         <f>IF(ISBLANK($J10),1,0)</f>
@@ -7442,7 +7469,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -7734,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7751,10 +7778,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7826,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7843,10 +7870,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7918,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7935,10 +7962,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8002,28 +8029,24 @@
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>368</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>86</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="29">
-        <v>0</v>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="45"/>
       <c r="M21" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -8068,7 +8091,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -8084,32 +8107,28 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>369</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>86</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
       <c r="I22" s="45"/>
-      <c r="J22" s="29">
-        <v>0</v>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="45"/>
       <c r="M22" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -8154,7 +8173,7 @@
       </c>
       <c r="AB22" s="7">
         <f>IF(AND(OR($O22=instellingen!$I$3,$O22=instellingen!$I$4),OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="7">
         <f>IF(AND($O22=instellingen!$I$2,$M22=instellingen!$I$3),1,0)</f>
@@ -8170,7 +8189,7 @@
       </c>
       <c r="AF22" s="8">
         <f>SUM(R22:AE22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">
@@ -8305,7 +8324,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9138,7 +9157,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -9284,7 +9303,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2">
         <v>786</v>
@@ -9294,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9311,7 +9330,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9356,7 +9375,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -9372,7 +9391,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -9390,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -9407,7 +9426,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9452,7 +9471,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -9468,7 +9487,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -9486,7 +9505,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -9503,7 +9522,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9548,7 +9567,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -9564,7 +9583,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -9583,7 +9602,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -9600,7 +9619,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9645,7 +9664,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -9661,7 +9680,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -9670,7 +9689,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633344907</v>
       </c>
       <c r="D10" s="2">
         <v>790</v>
@@ -9680,7 +9699,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -9697,7 +9716,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9742,7 +9761,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -9758,7 +9777,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -9777,7 +9796,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -9794,7 +9813,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -9839,7 +9858,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -9855,7 +9874,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -9928,7 +9947,9 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -11424,7 +11445,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11570,7 +11591,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2">
         <v>370</v>
@@ -11580,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11597,7 +11618,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11642,7 +11663,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11658,7 +11679,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11676,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11693,7 +11714,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11738,7 +11759,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11754,7 +11775,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11772,7 +11793,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -11789,7 +11810,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11834,7 +11855,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11850,7 +11871,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -11869,7 +11890,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -11886,7 +11907,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11931,7 +11952,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -11947,7 +11968,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -11956,7 +11977,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633344907</v>
       </c>
       <c r="D10" s="2">
         <v>374</v>
@@ -11966,7 +11987,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -11983,7 +12004,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12028,7 +12049,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -12044,7 +12065,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -12063,7 +12084,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -12080,7 +12101,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12125,7 +12146,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -12141,7 +12162,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -12215,7 +12236,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12346,10 +12367,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I18" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>7</v>
@@ -12363,7 +12384,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12408,7 +12429,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -12424,7 +12445,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -12436,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -12456,7 +12477,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12528,10 +12549,10 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I20" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>7</v>
@@ -12545,7 +12566,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12590,7 +12611,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -12606,7 +12627,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -12618,7 +12639,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -12632,13 +12653,13 @@
         <v>8</v>
       </c>
       <c r="N21" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -12710,10 +12731,10 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I22" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>7</v>
@@ -12726,13 +12747,13 @@
         <v>8</v>
       </c>
       <c r="N22" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -12804,10 +12825,10 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I23" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>7</v>
@@ -12821,7 +12842,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -12866,7 +12887,7 @@
       </c>
       <c r="AB23" s="7">
         <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="7">
         <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
@@ -12882,7 +12903,7 @@
       </c>
       <c r="AF23" s="8">
         <f>SUM(R23:AE23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -12934,7 +12955,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -13768,7 +13791,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13914,7 +13937,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14268,7 +14291,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633344907</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14640,7 +14663,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14657,7 +14680,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14702,7 +14725,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -14718,7 +14741,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -14730,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -14750,7 +14773,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14822,7 +14845,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14839,7 +14862,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14884,7 +14907,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -14900,7 +14923,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -14912,10 +14935,10 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I21" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>19</v>
@@ -14932,7 +14955,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -15004,10 +15027,10 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I22" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>7</v>
@@ -15023,10 +15046,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15098,7 +15121,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -15115,7 +15138,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -15160,7 +15183,7 @@
       </c>
       <c r="AB23" s="7">
         <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="7">
         <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
@@ -15176,7 +15199,7 @@
       </c>
       <c r="AF23" s="8">
         <f>SUM(R23:AE23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -15229,7 +15252,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15353,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15365,13 +15388,13 @@
         <v>8</v>
       </c>
       <c r="N30" s="46">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15443,7 +15466,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15455,13 +15478,13 @@
         <v>8</v>
       </c>
       <c r="N31" s="46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15533,7 +15556,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15545,13 +15568,13 @@
         <v>8</v>
       </c>
       <c r="N32" s="46">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15879,7 +15902,9 @@
       <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="G38" s="48"/>
+      <c r="G38" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
@@ -16234,7 +16259,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16588,7 +16613,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633344907</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17615,7 +17640,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17630,10 +17655,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17705,7 +17730,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17720,10 +17745,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17795,7 +17820,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17810,10 +17835,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18142,7 +18167,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/WB_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/WB_OPEN.xlsx
@@ -888,6 +888,9 @@
     <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.1 t/m 1.4) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.1 t/m 2.3)</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -937,9 +940,6 @@
   </si>
   <si>
     <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.1 t/m 1.3) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.1 t/m 2.5)</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.4 t/m 1.7) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.6 en 2.7). Stof van paragraaf 1.1 t/m 1.3 en 2.1 t/m 2.5 wordt bekend verondersteld.</t>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2510,7 +2510,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2606,7 +2606,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>209</v>
@@ -2619,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2702,7 +2702,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2716,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2803,11 +2803,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2">
         <v>775</v>
@@ -2817,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -2839,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2918,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -3001,7 +3001,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4719,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4802,7 +4802,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4898,7 +4898,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>110</v>
@@ -4911,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4994,7 +4994,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5008,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -5030,7 +5030,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5095,11 +5095,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2">
         <v>363</v>
@@ -5109,7 +5109,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -5131,7 +5131,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5210,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5293,7 +5293,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>111</v>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7385,11 +7385,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7655,7 +7655,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -9330,7 +9330,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9396,7 +9396,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9492,7 +9492,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>210</v>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9588,7 +9588,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9685,11 +9685,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2">
         <v>790</v>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9782,7 +9782,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -9879,7 +9879,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9902,7 +9902,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11684,7 +11684,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11714,7 +11714,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11780,7 +11780,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>112</v>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11876,7 +11876,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11973,11 +11973,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2">
         <v>374</v>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12070,7 +12070,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12167,7 +12167,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12190,7 +12190,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12384,7 +12384,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12842,7 +12842,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -14022,7 +14022,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14110,7 +14110,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>113</v>
@@ -14198,7 +14198,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14287,11 +14287,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14376,7 +14376,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14488,7 +14488,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14527,7 +14527,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14557,7 +14557,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14680,7 +14680,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14862,7 +14862,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -16344,7 +16344,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16432,7 +16432,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>114</v>
@@ -16520,7 +16520,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16609,11 +16609,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16698,7 +16698,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16787,7 +16787,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16810,7 +16810,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16849,7 +16849,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16879,7 +16879,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
